--- a/SeleniumHybridFrameWorkExcel/TestData/GlobalData.xlsx
+++ b/SeleniumHybridFrameWorkExcel/TestData/GlobalData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nlibu\git\SeleniumHybridFrameWorkExcel\SeleniumHybridFrameWorkExcel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C75559-F9AB-482C-BB3B-6B08A53077DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F7E48D-380C-402E-A00E-78CCB179E118}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11325" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="21600" windowHeight="11160" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Applications" sheetId="9" r:id="rId1"/>
@@ -3588,7 +3588,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3428" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="1299">
   <si>
     <t xml:space="preserve">Notes </t>
   </si>
@@ -9129,78 +9129,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -9237,6 +9165,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9251,6 +9182,75 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9918,7 +9918,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11607,7 +11607,9 @@
       <c r="A9" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>1298</v>
+      </c>
       <c r="C9" s="9" t="s">
         <v>780</v>
       </c>
@@ -19443,105 +19445,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="114" t="s">
         <v>729</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="48"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="111" t="s">
         <v>728</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
       <c r="H3" s="48"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="120" t="s">
         <v>727</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="122"/>
       <c r="H4" s="48"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="120" t="s">
         <v>726</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="120" t="s">
         <v>725</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="93"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="122"/>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="117" t="s">
         <v>724</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
     </row>
     <row r="8" spans="2:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="120" t="s">
         <v>723</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
     </row>
     <row r="9" spans="2:8" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="120" t="s">
         <v>722</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
     </row>
     <row r="10" spans="2:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10"/>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="117" t="s">
         <v>721</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
     </row>
     <row r="11" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
     </row>
     <row r="12" spans="2:8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="104" t="s">
         <v>720</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="39"/>
       <c r="H12" s="48"/>
     </row>
     <row r="13" spans="2:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
       <c r="H13" s="47"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -19612,23 +19614,23 @@
       <c r="E24" s="45"/>
     </row>
     <row r="25" spans="2:11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="85" t="s">
         <v>719</v>
       </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="111"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
     </row>
     <row r="26" spans="2:11" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="44" t="s">
         <v>718</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="88" t="s">
         <v>717</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
@@ -19637,89 +19639,89 @@
       <c r="B27" s="44" t="s">
         <v>716</v>
       </c>
-      <c r="C27" s="97" t="s">
+      <c r="C27" s="105" t="s">
         <v>715</v>
       </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="99"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="107"/>
     </row>
     <row r="28" spans="2:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="44" t="s">
         <v>714</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="94" t="s">
         <v>713</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="105"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
     </row>
     <row r="29" spans="2:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="44" t="s">
         <v>712</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="C29" s="108" t="s">
         <v>711</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="102"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="110"/>
     </row>
     <row r="30" spans="2:11" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="44" t="s">
         <v>710</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="94" t="s">
         <v>709</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="105"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
     </row>
     <row r="31" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="44" t="s">
         <v>708</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="94" t="s">
         <v>707</v>
       </c>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="119"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
     </row>
     <row r="32" spans="2:11" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="44" t="s">
         <v>706</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="94" t="s">
         <v>705</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="105"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
     </row>
     <row r="33" spans="2:8" ht="72.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="44" t="s">
         <v>704</v>
       </c>
-      <c r="C33" s="103" t="s">
+      <c r="C33" s="94" t="s">
         <v>703</v>
       </c>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="119"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
     </row>
     <row r="34" spans="2:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="44" t="s">
         <v>702</v>
       </c>
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="94" t="s">
         <v>701</v>
       </c>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="119"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="96"/>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="42"/>
@@ -19730,34 +19732,34 @@
       <c r="H35" s="43"/>
     </row>
     <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="91" t="s">
         <v>700</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
       <c r="F36" s="41" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="92" t="s">
         <v>698</v>
       </c>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="41" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="97" t="s">
         <v>696</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="122"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="99"/>
       <c r="F38" s="41" t="s">
         <v>695</v>
       </c>
@@ -19765,20 +19767,20 @@
       <c r="H38" s="42"/>
     </row>
     <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="83" t="s">
         <v>694</v>
       </c>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
       <c r="F39" s="41" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E41" s="39"/>
@@ -19811,6 +19813,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C28:F28"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="C25:F25"/>
@@ -19823,21 +19840,6 @@
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/SeleniumHybridFrameWorkExcel/TestData/GlobalData.xlsx
+++ b/SeleniumHybridFrameWorkExcel/TestData/GlobalData.xlsx
@@ -1,35 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nlibu\git\SeleniumHybridFrameWorkExcel\SeleniumHybridFrameWorkExcel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F7E48D-380C-402E-A00E-78CCB179E118}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D25080-9E42-4369-B652-A7A9A9D9F6D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="21600" windowHeight="11160" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Applications" sheetId="9" r:id="rId1"/>
-    <sheet name="Applicationstest" sheetId="3" r:id="rId2"/>
-    <sheet name="Additional Instructions" sheetId="6" r:id="rId3"/>
-    <sheet name="Codes &amp; Abbreviations" sheetId="4" r:id="rId4"/>
-    <sheet name="Sample Documents" sheetId="7" r:id="rId5"/>
-    <sheet name="CodesAbbreviations" sheetId="8" r:id="rId6"/>
+    <sheet name="Global" sheetId="10" r:id="rId2"/>
+    <sheet name="Applicationstest" sheetId="3" r:id="rId3"/>
+    <sheet name="Additional Instructions" sheetId="6" r:id="rId4"/>
+    <sheet name="Codes &amp; Abbreviations" sheetId="4" r:id="rId5"/>
+    <sheet name="Sample Documents" sheetId="7" r:id="rId6"/>
+    <sheet name="CodesAbbreviations" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Applications!$A$1:$Z$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Applicationstest!$A$1:$Z$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Codes &amp; Abbreviations'!$B$3:$I$54</definedName>
-    <definedName name="OLE_LINK1" localSheetId="2">'Additional Instructions'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Applicationstest!$A$1:$Z$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Codes &amp; Abbreviations'!$B$3:$I$54</definedName>
+    <definedName name="OLE_LINK1" localSheetId="3">'Additional Instructions'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3588,7 +3598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="1301">
   <si>
     <t xml:space="preserve">Notes </t>
   </si>
@@ -8244,6 +8254,12 @@
   </si>
   <si>
     <t>I94testGroupUpload</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -9300,7 +9316,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9355,7 +9371,7 @@
                   <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9916,9 +9932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A75686-B21A-4149-B414-5FDB84257241}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18118,6 +18134,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2BD097-EFA6-4931-A480-00BFEDFA230A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A335A-DF47-4048-BD00-1A46210CB849}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -19420,7 +19459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71FC56D-9B97-4375-A441-09EE894D5D19}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -19900,7 +19939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B8B533-1009-4AB3-B26E-8598122A06DD}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -23978,7 +24017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFA66E9-ABD2-45CA-9D5F-EE6B5760867B}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -24410,7 +24449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019333B4-44A7-4CD6-A00E-61948F172CB7}">
   <sheetPr>
     <tabColor theme="8"/>
